--- a/PAROBE.xlsx
+++ b/PAROBE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE01471-C6D8-481B-A2B2-1711623FEE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA5CEF9-C8BF-493D-9788-703177311DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1089,7 +1076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1149,36 +1136,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,14 +1180,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,7 +1228,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C13B6D10-F3F5-468F-9C01-72B4C407B80E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CB7241A6-8B45-4822-B202-BE8C8AFE8AC0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1300,10 +1258,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38337E85-BF8B-47DD-A51B-D10153CE4F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37CD02C-6D02-4F04-A750-F0DC483F45F8}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1299,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71152911-F76D-4AA7-83FD-82036A3FA49B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C684E195-01E2-456E-A471-58AF6A8DE3FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1362,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A299E492-35D7-4C38-8354-CEB5ABDC16C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0148BC88-D36D-4490-BD1C-B5DE34C72F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1381,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5904BF9E-26E1-51AF-BD63-49E32E113247}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7E7F46-C17B-A3D2-0E47-DED180F91DCB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1472,7 +1430,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657BB26A-1A5A-968C-DE01-755BA849B4FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6F8561-6850-9A7D-65ED-FD4C1BE6AA5B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1491,7 +1449,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEBB1C1-5D05-EF5C-48F9-9BB1A5C2CE52}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D5B227-D2D8-6A42-DAE3-B56DAB48F9A2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1522,7 +1480,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B561873A-65B0-BC97-ADC7-BF4D8D739EB4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B708B2-58A6-C7CD-3329-2A28A6228F6C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1553,7 +1511,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190AD050-C781-1F05-FE7F-22787DE2F624}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54B33F0-592F-DB75-61DB-8097D03D351F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1596,7 +1554,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63174431-21E4-4C0E-BDC7-2E48347B8EAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFAD2E6-CD5D-421F-A043-97B721DFB1C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1592,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5EDDFEB-87A0-45D2-9DA9-2E892DAFF639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE55A92-38A7-4CF1-973B-9A7D91B91A6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1635,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EDE843-CC01-46E8-93AA-721CA6A8BBE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC518B9-72DE-4536-9663-40397B6225EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C2BEE-B96F-4C16-AD00-82459730085E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF96B5E-AC0F-4432-A139-D8290A592538}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2002,98 +1960,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5421,19 +5379,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5456,57 +5414,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5531,54 +5489,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5589,17 +5548,17 @@
       <c r="B2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45748</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>15558</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>1631</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -5611,19 +5570,19 @@
       <c r="J2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>303</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5654,25 +5613,24 @@
       <c r="B1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
         <v>1</v>
       </c>
-      <c r="F1" s="33">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="35">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>6.612881893929374E-5</v>
       </c>
     </row>

--- a/PAROBE.xlsx
+++ b/PAROBE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA5CEF9-C8BF-493D-9788-703177311DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7230357-2B3A-4FB3-8D1F-CE5BB3A5377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,7 +1228,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CB7241A6-8B45-4822-B202-BE8C8AFE8AC0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B35D799D-407D-47A7-8732-83D013387E02}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1258,10 +1258,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37CD02C-6D02-4F04-A750-F0DC483F45F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EA0EE9-E30C-40D0-9AC8-C6A35EA124DE}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1299,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C684E195-01E2-456E-A471-58AF6A8DE3FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67336041-2F8C-42A9-BCC9-CBFE3074FDB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0148BC88-D36D-4490-BD1C-B5DE34C72F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64230656-2A88-445A-A420-DFF72D4FA2F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1381,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7E7F46-C17B-A3D2-0E47-DED180F91DCB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF145A09-1EB2-1F22-4575-E999DAA5F70E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1430,7 +1430,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6F8561-6850-9A7D-65ED-FD4C1BE6AA5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B3273B-4398-C02C-810E-F4350629CF82}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1449,7 +1449,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D5B227-D2D8-6A42-DAE3-B56DAB48F9A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6955431D-4832-1526-4CFD-083F05D616F4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1480,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B708B2-58A6-C7CD-3329-2A28A6228F6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CA9A97-C655-670A-48C5-0822B4D564AC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54B33F0-592F-DB75-61DB-8097D03D351F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799EE7BB-1916-4C21-E93C-BD7E6DD5EC1D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1554,7 +1554,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFAD2E6-CD5D-421F-A043-97B721DFB1C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1B6DF9-4ACF-4D5E-B90B-B8A085E20804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1592,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE55A92-38A7-4CF1-973B-9A7D91B91A6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80DCD28-A841-44B3-958E-F98C67119226}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1635,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC518B9-72DE-4536-9663-40397B6225EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BCA1C1-3318-49CE-B831-0854B2686CD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF96B5E-AC0F-4432-A139-D8290A592538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F82E520-89DE-459F-818C-BD034F858B09}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/PAROBE.xlsx
+++ b/PAROBE.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7230357-2B3A-4FB3-8D1F-CE5BB3A5377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FECC00A-A5B6-4472-941A-3EF9CEF3B005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="305">
   <si>
     <t>COMARCA</t>
   </si>
@@ -941,15 +940,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>PAROBÉ</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,27 +1198,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B35D799D-407D-47A7-8732-83D013387E02}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{12D5733D-F7BA-477D-94CA-1F28263400BB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1258,10 +1233,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EA0EE9-E30C-40D0-9AC8-C6A35EA124DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B172000-3EDF-42C5-9EE2-EEB6754595A1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1274,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67336041-2F8C-42A9-BCC9-CBFE3074FDB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6C6F6B-4B4C-4D01-B1F8-8AD669A8F627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1337,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64230656-2A88-445A-A420-DFF72D4FA2F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34AA7D6-43AE-4B85-95AB-E2A712824501}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1356,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF145A09-1EB2-1F22-4575-E999DAA5F70E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4C67EF-9FA1-B058-21DD-AC74C9C0CC50}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1430,7 +1405,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B3273B-4398-C02C-810E-F4350629CF82}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121FBE0A-2B5F-8E79-F05B-0A0649618D83}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1449,7 +1424,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6955431D-4832-1526-4CFD-083F05D616F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA16CA1-48A1-EA8B-10A3-F4A9AA36C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1455,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CA9A97-C655-670A-48C5-0822B4D564AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D58C81-38F3-034F-13C3-7353EF351ABC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,7 +1486,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799EE7BB-1916-4C21-E93C-BD7E6DD5EC1D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474A87BF-1C68-1622-C291-C75F1152EF1D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1554,7 +1529,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1B6DF9-4ACF-4D5E-B90B-B8A085E20804}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EEF4E-09CA-4E1E-9983-0476097784BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1567,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80DCD28-A841-44B3-958E-F98C67119226}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57FB2AA-FBF0-4955-9264-DB54B2BE918C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1610,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BCA1C1-3318-49CE-B831-0854B2686CD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3876768B-3DAF-4E10-AFA9-1324598A9A9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F82E520-89DE-459F-818C-BD034F858B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F1F823-8ABB-423B-9246-A125C2F84CC6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1960,98 +1935,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5589,52 +5564,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="30">
-        <v>6.612881893929374E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/PAROBE.xlsx
+++ b/PAROBE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FECC00A-A5B6-4472-941A-3EF9CEF3B005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{360DFFAE-76E7-4B1B-9022-EB0AE81E403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,7 +1203,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{12D5733D-F7BA-477D-94CA-1F28263400BB}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8FC075D0-EF63-4E67-86BE-A708C1A1F1F0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1233,10 +1233,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B172000-3EDF-42C5-9EE2-EEB6754595A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2607C02-148B-446B-B836-351E2080A424}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1274,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6C6F6B-4B4C-4D01-B1F8-8AD669A8F627}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C117AA-103F-4574-9487-36E13ABE29B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34AA7D6-43AE-4B85-95AB-E2A712824501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8E3258-17E5-4B84-8867-623BF7FFE021}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1356,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4C67EF-9FA1-B058-21DD-AC74C9C0CC50}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A1D8E0-91C2-D3FD-E8AF-22C71CF8CC3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121FBE0A-2B5F-8E79-F05B-0A0649618D83}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66870490-B704-4E15-5114-0699331430B5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1424,7 +1424,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA16CA1-48A1-EA8B-10A3-F4A9AA36C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E7E61C-F53A-7C8E-37CA-4F858C59A5C8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D58C81-38F3-034F-13C3-7353EF351ABC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF719A-890D-6278-A624-AC4B2EA6A2C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474A87BF-1C68-1622-C291-C75F1152EF1D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4553781A-21E9-2FD7-F6B8-713B0039BED1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EEF4E-09CA-4E1E-9983-0476097784BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82F9F2F-A5D8-4A1F-B615-EDC96D922F18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1567,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57FB2AA-FBF0-4955-9264-DB54B2BE918C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07795D35-7466-48C3-BA60-048D61DBCD3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,50 +1592,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3876768B-3DAF-4E10-AFA9-1324598A9A9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1923,7 +1879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F1F823-8ABB-423B-9246-A125C2F84CC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3013E2A7-2661-4240-AEBD-DE10D55101CB}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
